--- a/public/Excel_Temp.xlsx
+++ b/public/Excel_Temp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Original</t>
   </si>
@@ -30,6 +30,24 @@
   <si>
     <t>Scale</t>
   </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>not required</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>„true” or „false”</t>
+  </si>
+  <si>
+    <t>number from -20 to 20</t>
+  </si>
+  <si>
+    <t>The cells should be filled in according to the template prepared above. All cells written in red font should be deleted before importing the excel file.</t>
+  </si>
 </sst>
 </file>
 
@@ -38,7 +56,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -47,6 +65,11 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
@@ -65,107 +88,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -199,23 +132,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,8 +169,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="fffefffe"/>
+      <rgbColor rgb="ffed220b"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1266,109 +1199,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F10"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.35156" style="1" customWidth="1"/>
+    <col min="2" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.0547" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="22.7" customHeight="1"/>
+    <row r="2" ht="20.05" customHeight="1">
+      <c r="B2" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="D2" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="E2" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="F2" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="G2" t="s" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="B12" t="s" s="5">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s" s="6">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s" s="6">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="B13" t="s" s="5">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s" s="6">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s" s="6">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="B14" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
